--- a/downloaded_files/CMPS346_Lecture-35536.xlsx
+++ b/downloaded_files/CMPS346_Lecture-35536.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="146">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="143">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -346,15 +346,6 @@
   </x:si>
   <x:si>
     <x:t>Mohamed Mamdouh Sayed Mohamed</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4220141</x:t>
-  </x:si>
-  <x:si>
-    <x:t>محمود على عباس حسن</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mohmoud Ali Abas Hassan</x:t>
   </x:si>
   <x:si>
     <x:t>1210295</x:t>
@@ -569,7 +560,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E48" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E47" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -869,7 +860,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T48"/>
+  <x:dimension ref="A1:T47"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -2080,7 +2071,7 @@
         <x:v>112</x:v>
       </x:c>
       <x:c r="E37" s="3">
-        <x:v>45906.4458182523</x:v>
+        <x:v>45906.4143614583</x:v>
       </x:c>
       <x:c r="F37" s="2" t="s"/>
       <x:c r="G37" s="2" t="s"/>
@@ -2112,7 +2103,7 @@
         <x:v>115</x:v>
       </x:c>
       <x:c r="E38" s="3">
-        <x:v>45906.4143614583</x:v>
+        <x:v>45912.321941169</x:v>
       </x:c>
       <x:c r="F38" s="2" t="s"/>
       <x:c r="G38" s="2" t="s"/>
@@ -2144,7 +2135,7 @@
         <x:v>118</x:v>
       </x:c>
       <x:c r="E39" s="3">
-        <x:v>45912.321941169</x:v>
+        <x:v>45909.4150782755</x:v>
       </x:c>
       <x:c r="F39" s="2" t="s"/>
       <x:c r="G39" s="2" t="s"/>
@@ -2176,7 +2167,7 @@
         <x:v>121</x:v>
       </x:c>
       <x:c r="E40" s="3">
-        <x:v>45909.4150782755</x:v>
+        <x:v>45906.4762460648</x:v>
       </x:c>
       <x:c r="F40" s="2" t="s"/>
       <x:c r="G40" s="2" t="s"/>
@@ -2208,7 +2199,7 @@
         <x:v>124</x:v>
       </x:c>
       <x:c r="E41" s="3">
-        <x:v>45906.4762460648</x:v>
+        <x:v>45906.4144923958</x:v>
       </x:c>
       <x:c r="F41" s="2" t="s"/>
       <x:c r="G41" s="2" t="s"/>
@@ -2240,7 +2231,7 @@
         <x:v>127</x:v>
       </x:c>
       <x:c r="E42" s="3">
-        <x:v>45906.4144923958</x:v>
+        <x:v>45909.4151179745</x:v>
       </x:c>
       <x:c r="F42" s="2" t="s"/>
       <x:c r="G42" s="2" t="s"/>
@@ -2272,7 +2263,7 @@
         <x:v>130</x:v>
       </x:c>
       <x:c r="E43" s="3">
-        <x:v>45909.4151179745</x:v>
+        <x:v>45909.4149064468</x:v>
       </x:c>
       <x:c r="F43" s="2" t="s"/>
       <x:c r="G43" s="2" t="s"/>
@@ -2304,7 +2295,7 @@
         <x:v>133</x:v>
       </x:c>
       <x:c r="E44" s="3">
-        <x:v>45909.4149064468</x:v>
+        <x:v>45906.4144973032</x:v>
       </x:c>
       <x:c r="F44" s="2" t="s"/>
       <x:c r="G44" s="2" t="s"/>
@@ -2336,7 +2327,7 @@
         <x:v>136</x:v>
       </x:c>
       <x:c r="E45" s="3">
-        <x:v>45906.4144973032</x:v>
+        <x:v>45909.4421462153</x:v>
       </x:c>
       <x:c r="F45" s="2" t="s"/>
       <x:c r="G45" s="2" t="s"/>
@@ -2368,7 +2359,7 @@
         <x:v>139</x:v>
       </x:c>
       <x:c r="E46" s="3">
-        <x:v>45909.4421462153</x:v>
+        <x:v>45909.5377995023</x:v>
       </x:c>
       <x:c r="F46" s="2" t="s"/>
       <x:c r="G46" s="2" t="s"/>
@@ -2400,7 +2391,7 @@
         <x:v>142</x:v>
       </x:c>
       <x:c r="E47" s="3">
-        <x:v>45909.5377995023</x:v>
+        <x:v>45909.4148714931</x:v>
       </x:c>
       <x:c r="F47" s="2" t="s"/>
       <x:c r="G47" s="2" t="s"/>
@@ -2417,38 +2408,6 @@
       <x:c r="R47" s="2" t="s"/>
       <x:c r="S47" s="2" t="s"/>
       <x:c r="T47" s="2" t="s"/>
-    </x:row>
-    <x:row r="48" spans="1:20">
-      <x:c r="A48" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B48" s="2" t="s">
-        <x:v>143</x:v>
-      </x:c>
-      <x:c r="C48" s="2" t="s">
-        <x:v>144</x:v>
-      </x:c>
-      <x:c r="D48" s="2" t="s">
-        <x:v>145</x:v>
-      </x:c>
-      <x:c r="E48" s="3">
-        <x:v>45909.4148714931</x:v>
-      </x:c>
-      <x:c r="F48" s="2" t="s"/>
-      <x:c r="G48" s="2" t="s"/>
-      <x:c r="H48" s="2" t="s"/>
-      <x:c r="I48" s="2" t="s"/>
-      <x:c r="J48" s="2" t="s"/>
-      <x:c r="K48" s="2" t="s"/>
-      <x:c r="L48" s="2" t="s"/>
-      <x:c r="M48" s="2" t="s"/>
-      <x:c r="N48" s="2" t="s"/>
-      <x:c r="O48" s="2" t="s"/>
-      <x:c r="P48" s="2" t="s"/>
-      <x:c r="Q48" s="2" t="s"/>
-      <x:c r="R48" s="2" t="s"/>
-      <x:c r="S48" s="2" t="s"/>
-      <x:c r="T48" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/CMPS346_Lecture-35536.xlsx
+++ b/downloaded_files/CMPS346_Lecture-35536.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="143">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="140">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -355,15 +355,6 @@
   </x:si>
   <x:si>
     <x:t>Mahmoud Mohammed Mounir Loutfy Mohammed Abdel-Moniem Loutfy Loutfy</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1210162</x:t>
-  </x:si>
-  <x:si>
-    <x:t>معاذ محمد السيد هاشم</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Moaz Mohamed Alsayed Hashem</x:t>
   </x:si>
   <x:si>
     <x:t>1210381</x:t>
@@ -560,7 +551,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E47" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E46" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -860,7 +851,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T47"/>
+  <x:dimension ref="A1:T46"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -2103,7 +2094,7 @@
         <x:v>115</x:v>
       </x:c>
       <x:c r="E38" s="3">
-        <x:v>45912.321941169</x:v>
+        <x:v>45909.4150782755</x:v>
       </x:c>
       <x:c r="F38" s="2" t="s"/>
       <x:c r="G38" s="2" t="s"/>
@@ -2135,7 +2126,7 @@
         <x:v>118</x:v>
       </x:c>
       <x:c r="E39" s="3">
-        <x:v>45909.4150782755</x:v>
+        <x:v>45906.4762460648</x:v>
       </x:c>
       <x:c r="F39" s="2" t="s"/>
       <x:c r="G39" s="2" t="s"/>
@@ -2167,7 +2158,7 @@
         <x:v>121</x:v>
       </x:c>
       <x:c r="E40" s="3">
-        <x:v>45906.4762460648</x:v>
+        <x:v>45906.4144923958</x:v>
       </x:c>
       <x:c r="F40" s="2" t="s"/>
       <x:c r="G40" s="2" t="s"/>
@@ -2199,7 +2190,7 @@
         <x:v>124</x:v>
       </x:c>
       <x:c r="E41" s="3">
-        <x:v>45906.4144923958</x:v>
+        <x:v>45909.4151179745</x:v>
       </x:c>
       <x:c r="F41" s="2" t="s"/>
       <x:c r="G41" s="2" t="s"/>
@@ -2231,7 +2222,7 @@
         <x:v>127</x:v>
       </x:c>
       <x:c r="E42" s="3">
-        <x:v>45909.4151179745</x:v>
+        <x:v>45909.4149064468</x:v>
       </x:c>
       <x:c r="F42" s="2" t="s"/>
       <x:c r="G42" s="2" t="s"/>
@@ -2263,7 +2254,7 @@
         <x:v>130</x:v>
       </x:c>
       <x:c r="E43" s="3">
-        <x:v>45909.4149064468</x:v>
+        <x:v>45906.4144973032</x:v>
       </x:c>
       <x:c r="F43" s="2" t="s"/>
       <x:c r="G43" s="2" t="s"/>
@@ -2295,7 +2286,7 @@
         <x:v>133</x:v>
       </x:c>
       <x:c r="E44" s="3">
-        <x:v>45906.4144973032</x:v>
+        <x:v>45909.4421462153</x:v>
       </x:c>
       <x:c r="F44" s="2" t="s"/>
       <x:c r="G44" s="2" t="s"/>
@@ -2327,7 +2318,7 @@
         <x:v>136</x:v>
       </x:c>
       <x:c r="E45" s="3">
-        <x:v>45909.4421462153</x:v>
+        <x:v>45909.5377995023</x:v>
       </x:c>
       <x:c r="F45" s="2" t="s"/>
       <x:c r="G45" s="2" t="s"/>
@@ -2359,7 +2350,7 @@
         <x:v>139</x:v>
       </x:c>
       <x:c r="E46" s="3">
-        <x:v>45909.5377995023</x:v>
+        <x:v>45909.4148714931</x:v>
       </x:c>
       <x:c r="F46" s="2" t="s"/>
       <x:c r="G46" s="2" t="s"/>
@@ -2376,38 +2367,6 @@
       <x:c r="R46" s="2" t="s"/>
       <x:c r="S46" s="2" t="s"/>
       <x:c r="T46" s="2" t="s"/>
-    </x:row>
-    <x:row r="47" spans="1:20">
-      <x:c r="A47" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B47" s="2" t="s">
-        <x:v>140</x:v>
-      </x:c>
-      <x:c r="C47" s="2" t="s">
-        <x:v>141</x:v>
-      </x:c>
-      <x:c r="D47" s="2" t="s">
-        <x:v>142</x:v>
-      </x:c>
-      <x:c r="E47" s="3">
-        <x:v>45909.4148714931</x:v>
-      </x:c>
-      <x:c r="F47" s="2" t="s"/>
-      <x:c r="G47" s="2" t="s"/>
-      <x:c r="H47" s="2" t="s"/>
-      <x:c r="I47" s="2" t="s"/>
-      <x:c r="J47" s="2" t="s"/>
-      <x:c r="K47" s="2" t="s"/>
-      <x:c r="L47" s="2" t="s"/>
-      <x:c r="M47" s="2" t="s"/>
-      <x:c r="N47" s="2" t="s"/>
-      <x:c r="O47" s="2" t="s"/>
-      <x:c r="P47" s="2" t="s"/>
-      <x:c r="Q47" s="2" t="s"/>
-      <x:c r="R47" s="2" t="s"/>
-      <x:c r="S47" s="2" t="s"/>
-      <x:c r="T47" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/CMPS346_Lecture-35536.xlsx
+++ b/downloaded_files/CMPS346_Lecture-35536.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="140">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="131">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -42,15 +42,6 @@
     <x:t>Ahmed Salah Salem</x:t>
   </x:si>
   <x:si>
-    <x:t>1210194</x:t>
-  </x:si>
-  <x:si>
-    <x:t>احمد محمد عشري بخيت</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ahmed Mohamed Ashry Bekhet</x:t>
-  </x:si>
-  <x:si>
     <x:t>1210405</x:t>
   </x:si>
   <x:si>
@@ -78,15 +69,6 @@
     <x:t>Amir</x:t>
   </x:si>
   <x:si>
-    <x:t>4220112</x:t>
-  </x:si>
-  <x:si>
-    <x:t>انس علاء محمد ابراهيم</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Anas Alaa Mohamed  Ibrahim</x:t>
-  </x:si>
-  <x:si>
     <x:t>1210205</x:t>
   </x:si>
   <x:si>
@@ -141,6 +123,15 @@
     <x:t>Ziad Hesham Fahmy Mohamed</x:t>
   </x:si>
   <x:si>
+    <x:t>1210054</x:t>
+  </x:si>
+  <x:si>
+    <x:t>زياد هيثم شرف الدين محمد على</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ZIAD HAITHAM SHARAF ELDIN</x:t>
+  </x:si>
+  <x:si>
     <x:t>1210386</x:t>
   </x:si>
   <x:si>
@@ -249,15 +240,6 @@
     <x:t>Amr Ayman Farouck Mohamed</x:t>
   </x:si>
   <x:si>
-    <x:t>4220133</x:t>
-  </x:si>
-  <x:si>
-    <x:t>فاروق ضياء الدين فاروق السيد</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Farouq Diaa Eldin Farouk ElSayed</x:t>
-  </x:si>
-  <x:si>
     <x:t>1210111</x:t>
   </x:si>
   <x:si>
@@ -328,15 +310,6 @@
   </x:si>
   <x:si>
     <x:t>Mohamed Amar Ali Awaad</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4220140</x:t>
-  </x:si>
-  <x:si>
-    <x:t>محمد ماهر محمد رفعت</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mohamed Maher Mohamed</x:t>
   </x:si>
   <x:si>
     <x:t>1210416</x:t>
@@ -551,7 +524,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E46" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E43" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -851,7 +824,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T46"/>
+  <x:dimension ref="A1:T43"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -974,7 +947,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="E3" s="3">
-        <x:v>45906.4144664352</x:v>
+        <x:v>45909.4186249653</x:v>
       </x:c>
       <x:c r="F3" s="2" t="s"/>
       <x:c r="G3" s="2" t="s"/>
@@ -1006,7 +979,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E4" s="3">
-        <x:v>45909.4186249653</x:v>
+        <x:v>45909.6957830671</x:v>
       </x:c>
       <x:c r="F4" s="2" t="s"/>
       <x:c r="G4" s="2" t="s"/>
@@ -1038,7 +1011,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E5" s="3">
-        <x:v>45909.6957830671</x:v>
+        <x:v>45913.9500247685</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>
@@ -1070,7 +1043,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45913.9500247685</x:v>
+        <x:v>45913.7462855324</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -1102,7 +1075,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45909.4854640046</x:v>
+        <x:v>45906.4144067477</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -1134,7 +1107,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45913.7462855324</x:v>
+        <x:v>45906.6642293634</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -1166,7 +1139,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45906.4144067477</x:v>
+        <x:v>45909.4157207176</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1198,7 +1171,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45906.6642293634</x:v>
+        <x:v>45909.4706523958</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1230,7 +1203,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45909.4157207176</x:v>
+        <x:v>45906.4141704051</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1262,7 +1235,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45909.4706523958</x:v>
+        <x:v>45927.4143025463</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1294,7 +1267,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45906.4141704051</x:v>
+        <x:v>45906.4142010417</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1326,7 +1299,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45906.4142010417</x:v>
+        <x:v>45906.4143372338</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1358,7 +1331,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45906.4143372338</x:v>
+        <x:v>45909.4149015393</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1390,7 +1363,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45909.4149015393</x:v>
+        <x:v>45912.7014659375</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1422,7 +1395,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45912.7014659375</x:v>
+        <x:v>45909.6638215278</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1454,7 +1427,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45909.6638215278</x:v>
+        <x:v>45906.4145929051</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1486,7 +1459,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45906.4145929051</x:v>
+        <x:v>45906.6642143519</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1518,7 +1491,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45906.6642143519</x:v>
+        <x:v>45906.4167520833</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1550,7 +1523,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45906.4167520833</x:v>
+        <x:v>45906.414037963</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1582,7 +1555,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45906.414037963</x:v>
+        <x:v>45912.7015318287</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1614,7 +1587,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45912.7015318287</x:v>
+        <x:v>45918.1419658218</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1646,7 +1619,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45918.1419658218</x:v>
+        <x:v>45912.701390706</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1678,7 +1651,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45912.701390706</x:v>
+        <x:v>45912.7015869213</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1710,7 +1683,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45906.4147705208</x:v>
+        <x:v>45909.4148500347</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1742,7 +1715,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45912.7015869213</x:v>
+        <x:v>45906.4141048611</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1774,7 +1747,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45909.4148500347</x:v>
+        <x:v>45912.321468669</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1806,7 +1779,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45906.4141048611</x:v>
+        <x:v>45912.3221449074</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1838,7 +1811,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45912.321468669</x:v>
+        <x:v>45913.7317593403</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1870,7 +1843,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45912.3221449074</x:v>
+        <x:v>45906.4149950579</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1902,7 +1875,7 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45913.7317593403</x:v>
+        <x:v>45906.4140243056</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1934,7 +1907,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45906.4149950579</x:v>
+        <x:v>45909.414971331</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1966,7 +1939,7 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45906.4140243056</x:v>
+        <x:v>45906.4143614583</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -1998,7 +1971,7 @@
         <x:v>106</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45906.4163405093</x:v>
+        <x:v>45909.4150782755</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -2030,7 +2003,7 @@
         <x:v>109</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45909.414971331</x:v>
+        <x:v>45906.4762460648</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -2062,7 +2035,7 @@
         <x:v>112</x:v>
       </x:c>
       <x:c r="E37" s="3">
-        <x:v>45906.4143614583</x:v>
+        <x:v>45906.4144923958</x:v>
       </x:c>
       <x:c r="F37" s="2" t="s"/>
       <x:c r="G37" s="2" t="s"/>
@@ -2094,7 +2067,7 @@
         <x:v>115</x:v>
       </x:c>
       <x:c r="E38" s="3">
-        <x:v>45909.4150782755</x:v>
+        <x:v>45909.4151179745</x:v>
       </x:c>
       <x:c r="F38" s="2" t="s"/>
       <x:c r="G38" s="2" t="s"/>
@@ -2126,7 +2099,7 @@
         <x:v>118</x:v>
       </x:c>
       <x:c r="E39" s="3">
-        <x:v>45906.4762460648</x:v>
+        <x:v>45909.4149064468</x:v>
       </x:c>
       <x:c r="F39" s="2" t="s"/>
       <x:c r="G39" s="2" t="s"/>
@@ -2158,7 +2131,7 @@
         <x:v>121</x:v>
       </x:c>
       <x:c r="E40" s="3">
-        <x:v>45906.4144923958</x:v>
+        <x:v>45906.4144973032</x:v>
       </x:c>
       <x:c r="F40" s="2" t="s"/>
       <x:c r="G40" s="2" t="s"/>
@@ -2190,7 +2163,7 @@
         <x:v>124</x:v>
       </x:c>
       <x:c r="E41" s="3">
-        <x:v>45909.4151179745</x:v>
+        <x:v>45909.4421462153</x:v>
       </x:c>
       <x:c r="F41" s="2" t="s"/>
       <x:c r="G41" s="2" t="s"/>
@@ -2222,7 +2195,7 @@
         <x:v>127</x:v>
       </x:c>
       <x:c r="E42" s="3">
-        <x:v>45909.4149064468</x:v>
+        <x:v>45909.5377995023</x:v>
       </x:c>
       <x:c r="F42" s="2" t="s"/>
       <x:c r="G42" s="2" t="s"/>
@@ -2254,7 +2227,7 @@
         <x:v>130</x:v>
       </x:c>
       <x:c r="E43" s="3">
-        <x:v>45906.4144973032</x:v>
+        <x:v>45909.4148714931</x:v>
       </x:c>
       <x:c r="F43" s="2" t="s"/>
       <x:c r="G43" s="2" t="s"/>
@@ -2271,102 +2244,6 @@
       <x:c r="R43" s="2" t="s"/>
       <x:c r="S43" s="2" t="s"/>
       <x:c r="T43" s="2" t="s"/>
-    </x:row>
-    <x:row r="44" spans="1:20">
-      <x:c r="A44" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B44" s="2" t="s">
-        <x:v>131</x:v>
-      </x:c>
-      <x:c r="C44" s="2" t="s">
-        <x:v>132</x:v>
-      </x:c>
-      <x:c r="D44" s="2" t="s">
-        <x:v>133</x:v>
-      </x:c>
-      <x:c r="E44" s="3">
-        <x:v>45909.4421462153</x:v>
-      </x:c>
-      <x:c r="F44" s="2" t="s"/>
-      <x:c r="G44" s="2" t="s"/>
-      <x:c r="H44" s="2" t="s"/>
-      <x:c r="I44" s="2" t="s"/>
-      <x:c r="J44" s="2" t="s"/>
-      <x:c r="K44" s="2" t="s"/>
-      <x:c r="L44" s="2" t="s"/>
-      <x:c r="M44" s="2" t="s"/>
-      <x:c r="N44" s="2" t="s"/>
-      <x:c r="O44" s="2" t="s"/>
-      <x:c r="P44" s="2" t="s"/>
-      <x:c r="Q44" s="2" t="s"/>
-      <x:c r="R44" s="2" t="s"/>
-      <x:c r="S44" s="2" t="s"/>
-      <x:c r="T44" s="2" t="s"/>
-    </x:row>
-    <x:row r="45" spans="1:20">
-      <x:c r="A45" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B45" s="2" t="s">
-        <x:v>134</x:v>
-      </x:c>
-      <x:c r="C45" s="2" t="s">
-        <x:v>135</x:v>
-      </x:c>
-      <x:c r="D45" s="2" t="s">
-        <x:v>136</x:v>
-      </x:c>
-      <x:c r="E45" s="3">
-        <x:v>45909.5377995023</x:v>
-      </x:c>
-      <x:c r="F45" s="2" t="s"/>
-      <x:c r="G45" s="2" t="s"/>
-      <x:c r="H45" s="2" t="s"/>
-      <x:c r="I45" s="2" t="s"/>
-      <x:c r="J45" s="2" t="s"/>
-      <x:c r="K45" s="2" t="s"/>
-      <x:c r="L45" s="2" t="s"/>
-      <x:c r="M45" s="2" t="s"/>
-      <x:c r="N45" s="2" t="s"/>
-      <x:c r="O45" s="2" t="s"/>
-      <x:c r="P45" s="2" t="s"/>
-      <x:c r="Q45" s="2" t="s"/>
-      <x:c r="R45" s="2" t="s"/>
-      <x:c r="S45" s="2" t="s"/>
-      <x:c r="T45" s="2" t="s"/>
-    </x:row>
-    <x:row r="46" spans="1:20">
-      <x:c r="A46" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B46" s="2" t="s">
-        <x:v>137</x:v>
-      </x:c>
-      <x:c r="C46" s="2" t="s">
-        <x:v>138</x:v>
-      </x:c>
-      <x:c r="D46" s="2" t="s">
-        <x:v>139</x:v>
-      </x:c>
-      <x:c r="E46" s="3">
-        <x:v>45909.4148714931</x:v>
-      </x:c>
-      <x:c r="F46" s="2" t="s"/>
-      <x:c r="G46" s="2" t="s"/>
-      <x:c r="H46" s="2" t="s"/>
-      <x:c r="I46" s="2" t="s"/>
-      <x:c r="J46" s="2" t="s"/>
-      <x:c r="K46" s="2" t="s"/>
-      <x:c r="L46" s="2" t="s"/>
-      <x:c r="M46" s="2" t="s"/>
-      <x:c r="N46" s="2" t="s"/>
-      <x:c r="O46" s="2" t="s"/>
-      <x:c r="P46" s="2" t="s"/>
-      <x:c r="Q46" s="2" t="s"/>
-      <x:c r="R46" s="2" t="s"/>
-      <x:c r="S46" s="2" t="s"/>
-      <x:c r="T46" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/CMPS346_Lecture-35536.xlsx
+++ b/downloaded_files/CMPS346_Lecture-35536.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="131">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="134">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -58,6 +58,15 @@
   </x:si>
   <x:si>
     <x:t>osama said elnaggar</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1230136</x:t>
+  </x:si>
+  <x:si>
+    <x:t>اكمل محمد عماد عصمت نورالدين عصمت</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Akmal mohamed emad esmat</x:t>
   </x:si>
   <x:si>
     <x:t>1230162</x:t>
@@ -524,7 +533,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E43" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E44" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -824,7 +833,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T43"/>
+  <x:dimension ref="A1:T44"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1011,7 +1020,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E5" s="3">
-        <x:v>45913.9500247685</x:v>
+        <x:v>45928.8714659722</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>
@@ -1043,7 +1052,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45913.7462855324</x:v>
+        <x:v>45913.9500247685</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -1075,7 +1084,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45906.4144067477</x:v>
+        <x:v>45913.7462855324</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -1107,7 +1116,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45906.6642293634</x:v>
+        <x:v>45906.4144067477</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -1139,7 +1148,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45909.4157207176</x:v>
+        <x:v>45906.6642293634</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1171,7 +1180,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45909.4706523958</x:v>
+        <x:v>45909.4157207176</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1203,7 +1212,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45906.4141704051</x:v>
+        <x:v>45909.4706523958</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1235,7 +1244,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45927.4143025463</x:v>
+        <x:v>45906.4141704051</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1267,7 +1276,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45906.4142010417</x:v>
+        <x:v>45927.4143025463</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1299,7 +1308,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45906.4143372338</x:v>
+        <x:v>45906.4142010417</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1331,7 +1340,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45909.4149015393</x:v>
+        <x:v>45906.4143372338</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1363,7 +1372,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45912.7014659375</x:v>
+        <x:v>45909.4149015393</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1395,7 +1404,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45909.6638215278</x:v>
+        <x:v>45912.7014659375</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1427,7 +1436,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45906.4145929051</x:v>
+        <x:v>45909.6638215278</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1459,7 +1468,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45906.6642143519</x:v>
+        <x:v>45906.4145929051</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1491,7 +1500,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45906.4167520833</x:v>
+        <x:v>45906.6642143519</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1523,7 +1532,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45906.414037963</x:v>
+        <x:v>45906.4167520833</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1555,7 +1564,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45912.7015318287</x:v>
+        <x:v>45906.414037963</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1587,7 +1596,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45918.1419658218</x:v>
+        <x:v>45912.7015318287</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1619,7 +1628,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45912.701390706</x:v>
+        <x:v>45918.1419658218</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1651,7 +1660,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45912.7015869213</x:v>
+        <x:v>45912.701390706</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1683,7 +1692,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45909.4148500347</x:v>
+        <x:v>45912.7015869213</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1715,7 +1724,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45906.4141048611</x:v>
+        <x:v>45909.4148500347</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1747,7 +1756,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45912.321468669</x:v>
+        <x:v>45906.4141048611</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1779,7 +1788,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45912.3221449074</x:v>
+        <x:v>45912.321468669</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1811,7 +1820,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45913.7317593403</x:v>
+        <x:v>45912.3221449074</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1843,7 +1852,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45906.4149950579</x:v>
+        <x:v>45913.7317593403</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1875,7 +1884,7 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45906.4140243056</x:v>
+        <x:v>45906.4149950579</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1907,7 +1916,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45909.414971331</x:v>
+        <x:v>45906.4140243056</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1939,7 +1948,7 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45906.4143614583</x:v>
+        <x:v>45909.414971331</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -1971,7 +1980,7 @@
         <x:v>106</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45909.4150782755</x:v>
+        <x:v>45906.4143614583</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -2003,7 +2012,7 @@
         <x:v>109</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45906.4762460648</x:v>
+        <x:v>45909.4150782755</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -2035,7 +2044,7 @@
         <x:v>112</x:v>
       </x:c>
       <x:c r="E37" s="3">
-        <x:v>45906.4144923958</x:v>
+        <x:v>45906.4762460648</x:v>
       </x:c>
       <x:c r="F37" s="2" t="s"/>
       <x:c r="G37" s="2" t="s"/>
@@ -2067,7 +2076,7 @@
         <x:v>115</x:v>
       </x:c>
       <x:c r="E38" s="3">
-        <x:v>45909.4151179745</x:v>
+        <x:v>45906.4144923958</x:v>
       </x:c>
       <x:c r="F38" s="2" t="s"/>
       <x:c r="G38" s="2" t="s"/>
@@ -2099,7 +2108,7 @@
         <x:v>118</x:v>
       </x:c>
       <x:c r="E39" s="3">
-        <x:v>45909.4149064468</x:v>
+        <x:v>45909.4151179745</x:v>
       </x:c>
       <x:c r="F39" s="2" t="s"/>
       <x:c r="G39" s="2" t="s"/>
@@ -2131,7 +2140,7 @@
         <x:v>121</x:v>
       </x:c>
       <x:c r="E40" s="3">
-        <x:v>45906.4144973032</x:v>
+        <x:v>45909.4149064468</x:v>
       </x:c>
       <x:c r="F40" s="2" t="s"/>
       <x:c r="G40" s="2" t="s"/>
@@ -2163,7 +2172,7 @@
         <x:v>124</x:v>
       </x:c>
       <x:c r="E41" s="3">
-        <x:v>45909.4421462153</x:v>
+        <x:v>45906.4144973032</x:v>
       </x:c>
       <x:c r="F41" s="2" t="s"/>
       <x:c r="G41" s="2" t="s"/>
@@ -2195,7 +2204,7 @@
         <x:v>127</x:v>
       </x:c>
       <x:c r="E42" s="3">
-        <x:v>45909.5377995023</x:v>
+        <x:v>45909.4421462153</x:v>
       </x:c>
       <x:c r="F42" s="2" t="s"/>
       <x:c r="G42" s="2" t="s"/>
@@ -2227,7 +2236,7 @@
         <x:v>130</x:v>
       </x:c>
       <x:c r="E43" s="3">
-        <x:v>45909.4148714931</x:v>
+        <x:v>45909.5377995023</x:v>
       </x:c>
       <x:c r="F43" s="2" t="s"/>
       <x:c r="G43" s="2" t="s"/>
@@ -2244,6 +2253,38 @@
       <x:c r="R43" s="2" t="s"/>
       <x:c r="S43" s="2" t="s"/>
       <x:c r="T43" s="2" t="s"/>
+    </x:row>
+    <x:row r="44" spans="1:20">
+      <x:c r="A44" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B44" s="2" t="s">
+        <x:v>131</x:v>
+      </x:c>
+      <x:c r="C44" s="2" t="s">
+        <x:v>132</x:v>
+      </x:c>
+      <x:c r="D44" s="2" t="s">
+        <x:v>133</x:v>
+      </x:c>
+      <x:c r="E44" s="3">
+        <x:v>45909.4148714931</x:v>
+      </x:c>
+      <x:c r="F44" s="2" t="s"/>
+      <x:c r="G44" s="2" t="s"/>
+      <x:c r="H44" s="2" t="s"/>
+      <x:c r="I44" s="2" t="s"/>
+      <x:c r="J44" s="2" t="s"/>
+      <x:c r="K44" s="2" t="s"/>
+      <x:c r="L44" s="2" t="s"/>
+      <x:c r="M44" s="2" t="s"/>
+      <x:c r="N44" s="2" t="s"/>
+      <x:c r="O44" s="2" t="s"/>
+      <x:c r="P44" s="2" t="s"/>
+      <x:c r="Q44" s="2" t="s"/>
+      <x:c r="R44" s="2" t="s"/>
+      <x:c r="S44" s="2" t="s"/>
+      <x:c r="T44" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/CMPS346_Lecture-35536.xlsx
+++ b/downloaded_files/CMPS346_Lecture-35536.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="134">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="131">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -58,15 +58,6 @@
   </x:si>
   <x:si>
     <x:t>osama said elnaggar</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1230136</x:t>
-  </x:si>
-  <x:si>
-    <x:t>اكمل محمد عماد عصمت نورالدين عصمت</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Akmal mohamed emad esmat</x:t>
   </x:si>
   <x:si>
     <x:t>1230162</x:t>
@@ -533,7 +524,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E44" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E43" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -833,7 +824,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T44"/>
+  <x:dimension ref="A1:T43"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1020,7 +1011,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E5" s="3">
-        <x:v>45928.8714659722</x:v>
+        <x:v>45913.9500247685</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>
@@ -1052,7 +1043,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45913.9500247685</x:v>
+        <x:v>45913.7462855324</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -1084,7 +1075,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45913.7462855324</x:v>
+        <x:v>45906.4144067477</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -1116,7 +1107,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45906.4144067477</x:v>
+        <x:v>45906.6642293634</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -1148,7 +1139,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45906.6642293634</x:v>
+        <x:v>45909.4157207176</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1180,7 +1171,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45909.4157207176</x:v>
+        <x:v>45909.4706523958</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1212,7 +1203,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45909.4706523958</x:v>
+        <x:v>45906.4141704051</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1244,7 +1235,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45906.4141704051</x:v>
+        <x:v>45927.4143025463</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1276,7 +1267,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45927.4143025463</x:v>
+        <x:v>45906.4142010417</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1308,7 +1299,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45906.4142010417</x:v>
+        <x:v>45906.4143372338</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1340,7 +1331,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45906.4143372338</x:v>
+        <x:v>45909.4149015393</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1372,7 +1363,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45909.4149015393</x:v>
+        <x:v>45912.7014659375</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1404,7 +1395,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45912.7014659375</x:v>
+        <x:v>45909.6638215278</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1436,7 +1427,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45909.6638215278</x:v>
+        <x:v>45906.4145929051</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1468,7 +1459,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45906.4145929051</x:v>
+        <x:v>45906.6642143519</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1500,7 +1491,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45906.6642143519</x:v>
+        <x:v>45906.4167520833</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1532,7 +1523,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45906.4167520833</x:v>
+        <x:v>45906.414037963</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1564,7 +1555,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45906.414037963</x:v>
+        <x:v>45912.7015318287</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1596,7 +1587,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45912.7015318287</x:v>
+        <x:v>45918.1419658218</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1628,7 +1619,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45918.1419658218</x:v>
+        <x:v>45912.701390706</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1660,7 +1651,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45912.701390706</x:v>
+        <x:v>45912.7015869213</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1692,7 +1683,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45912.7015869213</x:v>
+        <x:v>45909.4148500347</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1724,7 +1715,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45909.4148500347</x:v>
+        <x:v>45906.4141048611</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1756,7 +1747,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45906.4141048611</x:v>
+        <x:v>45912.321468669</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1788,7 +1779,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45912.321468669</x:v>
+        <x:v>45912.3221449074</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1820,7 +1811,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45912.3221449074</x:v>
+        <x:v>45913.7317593403</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1852,7 +1843,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45913.7317593403</x:v>
+        <x:v>45906.4149950579</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1884,7 +1875,7 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45906.4149950579</x:v>
+        <x:v>45906.4140243056</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1916,7 +1907,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45906.4140243056</x:v>
+        <x:v>45909.414971331</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1948,7 +1939,7 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45909.414971331</x:v>
+        <x:v>45906.4143614583</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -1980,7 +1971,7 @@
         <x:v>106</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45906.4143614583</x:v>
+        <x:v>45909.4150782755</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -2012,7 +2003,7 @@
         <x:v>109</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45909.4150782755</x:v>
+        <x:v>45906.4762460648</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -2044,7 +2035,7 @@
         <x:v>112</x:v>
       </x:c>
       <x:c r="E37" s="3">
-        <x:v>45906.4762460648</x:v>
+        <x:v>45906.4144923958</x:v>
       </x:c>
       <x:c r="F37" s="2" t="s"/>
       <x:c r="G37" s="2" t="s"/>
@@ -2076,7 +2067,7 @@
         <x:v>115</x:v>
       </x:c>
       <x:c r="E38" s="3">
-        <x:v>45906.4144923958</x:v>
+        <x:v>45909.4151179745</x:v>
       </x:c>
       <x:c r="F38" s="2" t="s"/>
       <x:c r="G38" s="2" t="s"/>
@@ -2108,7 +2099,7 @@
         <x:v>118</x:v>
       </x:c>
       <x:c r="E39" s="3">
-        <x:v>45909.4151179745</x:v>
+        <x:v>45909.4149064468</x:v>
       </x:c>
       <x:c r="F39" s="2" t="s"/>
       <x:c r="G39" s="2" t="s"/>
@@ -2140,7 +2131,7 @@
         <x:v>121</x:v>
       </x:c>
       <x:c r="E40" s="3">
-        <x:v>45909.4149064468</x:v>
+        <x:v>45906.4144973032</x:v>
       </x:c>
       <x:c r="F40" s="2" t="s"/>
       <x:c r="G40" s="2" t="s"/>
@@ -2172,7 +2163,7 @@
         <x:v>124</x:v>
       </x:c>
       <x:c r="E41" s="3">
-        <x:v>45906.4144973032</x:v>
+        <x:v>45909.4421462153</x:v>
       </x:c>
       <x:c r="F41" s="2" t="s"/>
       <x:c r="G41" s="2" t="s"/>
@@ -2204,7 +2195,7 @@
         <x:v>127</x:v>
       </x:c>
       <x:c r="E42" s="3">
-        <x:v>45909.4421462153</x:v>
+        <x:v>45909.5377995023</x:v>
       </x:c>
       <x:c r="F42" s="2" t="s"/>
       <x:c r="G42" s="2" t="s"/>
@@ -2236,7 +2227,7 @@
         <x:v>130</x:v>
       </x:c>
       <x:c r="E43" s="3">
-        <x:v>45909.5377995023</x:v>
+        <x:v>45909.4148714931</x:v>
       </x:c>
       <x:c r="F43" s="2" t="s"/>
       <x:c r="G43" s="2" t="s"/>
@@ -2253,38 +2244,6 @@
       <x:c r="R43" s="2" t="s"/>
       <x:c r="S43" s="2" t="s"/>
       <x:c r="T43" s="2" t="s"/>
-    </x:row>
-    <x:row r="44" spans="1:20">
-      <x:c r="A44" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B44" s="2" t="s">
-        <x:v>131</x:v>
-      </x:c>
-      <x:c r="C44" s="2" t="s">
-        <x:v>132</x:v>
-      </x:c>
-      <x:c r="D44" s="2" t="s">
-        <x:v>133</x:v>
-      </x:c>
-      <x:c r="E44" s="3">
-        <x:v>45909.4148714931</x:v>
-      </x:c>
-      <x:c r="F44" s="2" t="s"/>
-      <x:c r="G44" s="2" t="s"/>
-      <x:c r="H44" s="2" t="s"/>
-      <x:c r="I44" s="2" t="s"/>
-      <x:c r="J44" s="2" t="s"/>
-      <x:c r="K44" s="2" t="s"/>
-      <x:c r="L44" s="2" t="s"/>
-      <x:c r="M44" s="2" t="s"/>
-      <x:c r="N44" s="2" t="s"/>
-      <x:c r="O44" s="2" t="s"/>
-      <x:c r="P44" s="2" t="s"/>
-      <x:c r="Q44" s="2" t="s"/>
-      <x:c r="R44" s="2" t="s"/>
-      <x:c r="S44" s="2" t="s"/>
-      <x:c r="T44" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/CMPS346_Lecture-35536.xlsx
+++ b/downloaded_files/CMPS346_Lecture-35536.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="131">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="128">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -148,15 +148,6 @@
   </x:si>
   <x:si>
     <x:t>Chahd Ihab Mahmoud Mahmoud Elzalaki</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1230053</x:t>
-  </x:si>
-  <x:si>
-    <x:t>عبدالرحمن احمد محمد صلاح الدين علي رجب</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AbdelRahman Ahmed Mohamed Salah Eldin Ali</x:t>
   </x:si>
   <x:si>
     <x:t>1210014</x:t>
@@ -524,7 +515,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E43" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E42" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -824,7 +815,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T43"/>
+  <x:dimension ref="A1:T42"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1331,7 +1322,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45909.4149015393</x:v>
+        <x:v>45912.7014659375</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1363,7 +1354,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45912.7014659375</x:v>
+        <x:v>45909.6638215278</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1395,7 +1386,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45909.6638215278</x:v>
+        <x:v>45906.4145929051</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1427,7 +1418,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45906.4145929051</x:v>
+        <x:v>45906.6642143519</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1459,7 +1450,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45906.6642143519</x:v>
+        <x:v>45906.4167520833</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1491,7 +1482,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45906.4167520833</x:v>
+        <x:v>45906.414037963</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1523,7 +1514,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45906.414037963</x:v>
+        <x:v>45912.7015318287</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1555,7 +1546,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45912.7015318287</x:v>
+        <x:v>45918.1419658218</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1587,7 +1578,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45918.1419658218</x:v>
+        <x:v>45912.701390706</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1619,7 +1610,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45912.701390706</x:v>
+        <x:v>45912.7015869213</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1651,7 +1642,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45912.7015869213</x:v>
+        <x:v>45909.4148500347</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1683,7 +1674,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45909.4148500347</x:v>
+        <x:v>45906.4141048611</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1715,7 +1706,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45906.4141048611</x:v>
+        <x:v>45912.321468669</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1747,7 +1738,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45912.321468669</x:v>
+        <x:v>45912.3221449074</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1779,7 +1770,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45912.3221449074</x:v>
+        <x:v>45913.7317593403</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1811,7 +1802,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45913.7317593403</x:v>
+        <x:v>45906.4149950579</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1843,7 +1834,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45906.4149950579</x:v>
+        <x:v>45906.4140243056</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1875,7 +1866,7 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45906.4140243056</x:v>
+        <x:v>45909.414971331</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1907,7 +1898,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45909.414971331</x:v>
+        <x:v>45906.4143614583</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1939,7 +1930,7 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45906.4143614583</x:v>
+        <x:v>45909.4150782755</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -1971,7 +1962,7 @@
         <x:v>106</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45909.4150782755</x:v>
+        <x:v>45906.4762460648</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -2003,7 +1994,7 @@
         <x:v>109</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45906.4762460648</x:v>
+        <x:v>45906.4144923958</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -2035,7 +2026,7 @@
         <x:v>112</x:v>
       </x:c>
       <x:c r="E37" s="3">
-        <x:v>45906.4144923958</x:v>
+        <x:v>45909.4151179745</x:v>
       </x:c>
       <x:c r="F37" s="2" t="s"/>
       <x:c r="G37" s="2" t="s"/>
@@ -2067,7 +2058,7 @@
         <x:v>115</x:v>
       </x:c>
       <x:c r="E38" s="3">
-        <x:v>45909.4151179745</x:v>
+        <x:v>45909.4149064468</x:v>
       </x:c>
       <x:c r="F38" s="2" t="s"/>
       <x:c r="G38" s="2" t="s"/>
@@ -2099,7 +2090,7 @@
         <x:v>118</x:v>
       </x:c>
       <x:c r="E39" s="3">
-        <x:v>45909.4149064468</x:v>
+        <x:v>45906.4144973032</x:v>
       </x:c>
       <x:c r="F39" s="2" t="s"/>
       <x:c r="G39" s="2" t="s"/>
@@ -2131,7 +2122,7 @@
         <x:v>121</x:v>
       </x:c>
       <x:c r="E40" s="3">
-        <x:v>45906.4144973032</x:v>
+        <x:v>45909.4421462153</x:v>
       </x:c>
       <x:c r="F40" s="2" t="s"/>
       <x:c r="G40" s="2" t="s"/>
@@ -2163,7 +2154,7 @@
         <x:v>124</x:v>
       </x:c>
       <x:c r="E41" s="3">
-        <x:v>45909.4421462153</x:v>
+        <x:v>45909.5377995023</x:v>
       </x:c>
       <x:c r="F41" s="2" t="s"/>
       <x:c r="G41" s="2" t="s"/>
@@ -2195,7 +2186,7 @@
         <x:v>127</x:v>
       </x:c>
       <x:c r="E42" s="3">
-        <x:v>45909.5377995023</x:v>
+        <x:v>45909.4148714931</x:v>
       </x:c>
       <x:c r="F42" s="2" t="s"/>
       <x:c r="G42" s="2" t="s"/>
@@ -2212,38 +2203,6 @@
       <x:c r="R42" s="2" t="s"/>
       <x:c r="S42" s="2" t="s"/>
       <x:c r="T42" s="2" t="s"/>
-    </x:row>
-    <x:row r="43" spans="1:20">
-      <x:c r="A43" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B43" s="2" t="s">
-        <x:v>128</x:v>
-      </x:c>
-      <x:c r="C43" s="2" t="s">
-        <x:v>129</x:v>
-      </x:c>
-      <x:c r="D43" s="2" t="s">
-        <x:v>130</x:v>
-      </x:c>
-      <x:c r="E43" s="3">
-        <x:v>45909.4148714931</x:v>
-      </x:c>
-      <x:c r="F43" s="2" t="s"/>
-      <x:c r="G43" s="2" t="s"/>
-      <x:c r="H43" s="2" t="s"/>
-      <x:c r="I43" s="2" t="s"/>
-      <x:c r="J43" s="2" t="s"/>
-      <x:c r="K43" s="2" t="s"/>
-      <x:c r="L43" s="2" t="s"/>
-      <x:c r="M43" s="2" t="s"/>
-      <x:c r="N43" s="2" t="s"/>
-      <x:c r="O43" s="2" t="s"/>
-      <x:c r="P43" s="2" t="s"/>
-      <x:c r="Q43" s="2" t="s"/>
-      <x:c r="R43" s="2" t="s"/>
-      <x:c r="S43" s="2" t="s"/>
-      <x:c r="T43" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/CMPS346_Lecture-35536.xlsx
+++ b/downloaded_files/CMPS346_Lecture-35536.xlsx
@@ -165,7 +165,7 @@
     <x:t>عبدالرحمن خالد محمد فصيح</x:t>
   </x:si>
   <x:si>
-    <x:t>Abd Elrahman Khaled Mohamed</x:t>
+    <x:t>Abd Elrahman Khaled Mohamed Faseeh</x:t>
   </x:si>
   <x:si>
     <x:t>1210015</x:t>
@@ -390,7 +390,7 @@
     <x:t>يوسف كامل إسماعيل محمد كامل اسماعيل</x:t>
   </x:si>
   <x:si>
-    <x:t>Youssuf kamel ismail Mohammed</x:t>
+    <x:t>Youssef Kamel Ismail Mohamed Kamel Ismail</x:t>
   </x:si>
   <x:si>
     <x:t>1220299</x:t>

--- a/downloaded_files/CMPS346_Lecture-35536.xlsx
+++ b/downloaded_files/CMPS346_Lecture-35536.xlsx
@@ -48,7 +48,7 @@
     <x:t>احمد محمد محمود محمد</x:t>
   </x:si>
   <x:si>
-    <x:t>Ahmed Mohammed Mahmoud Mohammed</x:t>
+    <x:t>Ahmed Mohamed Mahmoud Mohamed</x:t>
   </x:si>
   <x:si>
     <x:t>1230018</x:t>
@@ -246,7 +246,7 @@
     <x:t>لؤى احمد كمال عبدالغفار عثمان</x:t>
   </x:si>
   <x:si>
-    <x:t>Loay Ahmed Kamal Abdul Ghaffar Othman</x:t>
+    <x:t>Loay Ahmed Kamal Abdelghafar Othman</x:t>
   </x:si>
   <x:si>
     <x:t>1210024</x:t>
@@ -309,7 +309,7 @@
     <x:t>محمد ممدوح سيد محمد السمرى</x:t>
   </x:si>
   <x:si>
-    <x:t>Mohamed Mamdouh Sayed Mohamed</x:t>
+    <x:t>Mohamed Mamdouh Sayed Mohamed Elsemary</x:t>
   </x:si>
   <x:si>
     <x:t>1210295</x:t>
